--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1298,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1345,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1391,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1529,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1622,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1777,10 +1789,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1824,28 +1836,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1870,28 +1882,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2152,10 +2164,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2199,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2245,28 +2257,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2412,10 +2424,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2459,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2505,28 +2517,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2672,10 +2684,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2719,28 +2731,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2765,28 +2777,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2845,10 +2857,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2892,28 +2904,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2938,28 +2950,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3076,10 +3088,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3123,28 +3135,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3169,28 +3181,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3394,10 +3406,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3441,28 +3453,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3487,28 +3499,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3666,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3701,28 +3713,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3759,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3914,10 +3926,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3961,28 +3973,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4007,28 +4019,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4087,10 +4099,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4134,28 +4146,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4180,28 +4192,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4260,10 +4272,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4307,28 +4319,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4353,28 +4365,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4433,10 +4445,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4480,28 +4492,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4526,28 +4538,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4867,10 +4879,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4914,28 +4926,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4960,28 +4972,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5330,10 +5342,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5377,28 +5389,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5423,28 +5435,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5503,10 +5515,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5550,28 +5562,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5596,28 +5608,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5676,10 +5688,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5723,28 +5735,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5769,28 +5781,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5907,10 +5919,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5954,28 +5966,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6000,28 +6012,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6167,10 +6179,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6214,28 +6226,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6260,28 +6272,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6340,10 +6352,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6387,28 +6399,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6433,28 +6445,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6571,10 +6583,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6618,28 +6630,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6664,28 +6676,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6860,10 +6872,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6907,28 +6919,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6953,28 +6965,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7033,10 +7045,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7080,28 +7092,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7126,28 +7138,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7206,10 +7218,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7253,28 +7265,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7299,28 +7311,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7379,10 +7391,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
